--- a/src/main/resources/template_exports/template_server_list_for_export2.xlsx
+++ b/src/main/resources/template_exports/template_server_list_for_export2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hauvt/Documents/FPT_ACADEMY/SESSION2/SOURCE_DEMO/spring-boot-thymeleaf/src/main/resources/template_exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC7CA7-BA62-C042-9423-C45E544BE4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7389928-8E66-F84A-B59E-42801211B47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36120" yWindow="3060" windowWidth="29040" windowHeight="15840" xr2:uid="{F33266DB-5DB2-474F-8088-4B791CAAF5B2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20420" xr2:uid="{F33266DB-5DB2-474F-8088-4B791CAAF5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
